--- a/efficiency/low_activity/data/low_activity_files/HidexAMG-Track_30min-035-20240502-082900-AutoExport.xlsx
+++ b/efficiency/low_activity/data/low_activity_files/HidexAMG-Track_30min-035-20240502-082900-AutoExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuliy\OneDrive\Documents\Fall 2023\Research\efficiency\low_activity\data\low_activity_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF379FA-2848-48D7-B516-61507FB879AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666D6D0-26D1-4C06-8FC0-25A9D0ED2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>

--- a/efficiency/low_activity/data/low_activity_files/HidexAMG-Track_30min-035-20240502-082900-AutoExport.xlsx
+++ b/efficiency/low_activity/data/low_activity_files/HidexAMG-Track_30min-035-20240502-082900-AutoExport.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuliy\OneDrive\Documents\Fall 2023\Research\efficiency\low_activity\data\low_activity_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666D6D0-26D1-4C06-8FC0-25A9D0ED2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC2FB6-2282-4CB7-82E5-46004D8ADA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Spectra" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -171,8 +172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -200,12 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,9 +545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -769,7 +777,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>45414.354376018498</v>
       </c>
       <c r="D27">
@@ -798,7 +806,7 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>45414.355400335597</v>
       </c>
       <c r="D28">
@@ -827,7 +835,7 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>45414.356426099497</v>
       </c>
       <c r="D29">
@@ -856,7 +864,7 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>45414.357450023097</v>
       </c>
       <c r="D30">
@@ -885,7 +893,7 @@
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>45414.358475983798</v>
       </c>
       <c r="D31">
@@ -914,7 +922,7 @@
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>45414.359503541702</v>
       </c>
       <c r="D32">
@@ -943,7 +951,7 @@
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>45414.360529328696</v>
       </c>
       <c r="D33">
@@ -972,7 +980,7 @@
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>45414.361555254603</v>
       </c>
       <c r="D34">
@@ -1001,7 +1009,7 @@
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>45414.3625821065</v>
       </c>
       <c r="D35">
@@ -1030,7 +1038,7 @@
       <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>45414.363608773201</v>
       </c>
       <c r="D36">
@@ -1054,6 +1062,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
